--- a/Lenses/aperturelens.xlsx
+++ b/Lenses/aperturelens.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -41,17 +41,53 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,43 +312,43 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="P2">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="Q2">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="R2">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="S2">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="T2">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="U2">
-        <v>189.83765133475529</v>
+        <v>192.17646028735032</v>
       </c>
       <c r="V2">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="W2">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="X2">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="Y2">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="Z2">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="AA2">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -395,55 +431,55 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="N3">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="O3">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="P3">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="Q3">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="R3">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="S3">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="T3">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="U3">
-        <v>44.733500410617097</v>
+        <v>46.263369775453015</v>
       </c>
       <c r="V3">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="W3">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="X3">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="Y3">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="Z3">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="AA3">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="AB3">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="AC3">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -514,67 +550,67 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="L4">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="M4">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="N4">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="O4">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="P4">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="Q4">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="R4">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="S4">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="T4">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="U4">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="V4">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="W4">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="X4">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="Y4">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="Z4">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="AA4">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AB4">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="AC4">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="AD4">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="AE4">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -636,73 +672,73 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="K5">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="L5">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="M5">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="N5">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="O5">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="P5">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="Q5">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="R5">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="S5">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="T5">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="U5">
-        <v>209.44311899411059</v>
+        <v>210.07774583883364</v>
       </c>
       <c r="V5">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="W5">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="X5">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="Y5">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="Z5">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="AA5">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="AB5">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="AC5">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="AD5">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="AE5">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="AF5">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -755,85 +791,85 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="I6">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="J6">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="K6">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="L6">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="M6">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="N6">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="O6">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="P6">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="Q6">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="R6">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="S6">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="T6">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="U6">
-        <v>149.04096450928506</v>
+        <v>149.44422464864789</v>
       </c>
       <c r="V6">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="W6">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="X6">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="Y6">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="Z6">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AA6">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="AB6">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="AC6">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="AD6">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="AE6">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AF6">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="AG6">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="AH6">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -877,91 +913,91 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>333.87421529168535</v>
+        <v>337.13109994355011</v>
       </c>
       <c r="H7">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="I7">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="J7">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="K7">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="L7">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="M7">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="N7">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="O7">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="P7">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="Q7">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="R7">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="S7">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="T7">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="U7">
-        <v>107.72383921960682</v>
+        <v>107.97820705551861</v>
       </c>
       <c r="V7">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="W7">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="X7">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="Y7">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="Z7">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AA7">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="AB7">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="AC7">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="AD7">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="AE7">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="AF7">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="AG7">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="AH7">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="AI7">
-        <v>333.87421529168535</v>
+        <v>337.13109994355011</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -999,97 +1035,97 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="G8">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="H8">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="I8">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="J8">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="K8">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="L8">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="M8">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="N8">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="O8">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="P8">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="Q8">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="R8">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="S8">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="T8">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="U8">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="V8">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="W8">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="X8">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="Y8">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="Z8">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="AA8">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="AB8">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="AC8">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="AD8">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AE8">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="AF8">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="AG8">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="AH8">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="AI8">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="AJ8">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1124,97 +1160,97 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="G9">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="H9">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="I9">
-        <v>290.24386713595612</v>
+        <v>291.22127656146813</v>
       </c>
       <c r="J9">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="K9">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="L9">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="M9">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="N9">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="O9">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="P9">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="Q9">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="R9">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="S9">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="T9">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="U9">
-        <v>68.517845486467948</v>
+        <v>68.617254347385682</v>
       </c>
       <c r="V9">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="W9">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="X9">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="Y9">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="Z9">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="AA9">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="AB9">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="AC9">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="AD9">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="AE9">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="AF9">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="AG9">
-        <v>290.24386713595612</v>
+        <v>291.22127656146813</v>
       </c>
       <c r="AH9">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="AI9">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="AJ9">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1246,103 +1282,103 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="F10">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="G10">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="H10">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="I10">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="J10">
-        <v>180.03851004812563</v>
+        <v>180.55800193237209</v>
       </c>
       <c r="K10">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="L10">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="M10">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="N10">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="O10">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="P10">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="Q10">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="R10">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="S10">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="T10">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="U10">
-        <v>64.888066631920466</v>
+        <v>64.949658070804546</v>
       </c>
       <c r="V10">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="W10">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="X10">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="Y10">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="Z10">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="AA10">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="AB10">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="AC10">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="AD10">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="AE10">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AF10">
-        <v>180.03851004812563</v>
+        <v>180.55800193237209</v>
       </c>
       <c r="AG10">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="AH10">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="AI10">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="AJ10">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="AK10">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1368,109 +1404,109 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="E11">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="F11">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="G11">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="H11">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="I11">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="J11">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="K11">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="L11">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="M11">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="N11">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="O11">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="P11">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="Q11">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="R11">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="S11">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="T11">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="U11">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="V11">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="W11">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="X11">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="Y11">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="Z11">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="AA11">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="AB11">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="AC11">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="AD11">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="AE11">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="AF11">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AG11">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="AH11">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="AI11">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="AJ11">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AK11">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="AL11">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -1493,109 +1529,109 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="E12">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="F12">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="G12">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="H12">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="I12">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="J12">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="K12">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="L12">
-        <v>77.155332850924907</v>
+        <v>77.295632099792414</v>
       </c>
       <c r="M12">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="N12">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="O12">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="P12">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="Q12">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="R12">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="S12">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="T12">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="U12">
-        <v>78.003841509698589</v>
+        <v>78.026765858913876</v>
       </c>
       <c r="V12">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="W12">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="X12">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="Y12">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="Z12">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="AA12">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="AB12">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="AC12">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="AD12">
-        <v>77.155332850924907</v>
+        <v>77.295632099792414</v>
       </c>
       <c r="AE12">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="AF12">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="AG12">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="AH12">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AI12">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="AJ12">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="AK12">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="AL12">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -1615,115 +1651,115 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="D13">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="E13">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="F13">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="G13">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="H13">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="I13">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="J13">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="K13">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="L13">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="M13">
-        <v>65.121508830376499</v>
+        <v>65.19313553209544</v>
       </c>
       <c r="N13">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="O13">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="P13">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="Q13">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="R13">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="S13">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="T13">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="U13">
-        <v>90.984597922826737</v>
+        <v>90.998189521943914</v>
       </c>
       <c r="V13">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="W13">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="X13">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="Y13">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="Z13">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="AA13">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="AB13">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="AC13">
-        <v>65.121508830376499</v>
+        <v>65.19313553209544</v>
       </c>
       <c r="AD13">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="AE13">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="AF13">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="AG13">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="AH13">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="AI13">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="AJ13">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="AK13">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="AL13">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="AM13">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -1740,115 +1776,115 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="D14">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="E14">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="F14">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="G14">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="H14">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="I14">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="J14">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="K14">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="L14">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="M14">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="N14">
-        <v>69.436450418485919</v>
+        <v>69.472451754499261</v>
       </c>
       <c r="O14">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="P14">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="Q14">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="R14">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="S14">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="T14">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="U14">
-        <v>106.11466350459321</v>
+        <v>106.12245660075074</v>
       </c>
       <c r="V14">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="W14">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="X14">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="Y14">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="Z14">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="AA14">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="AB14">
-        <v>69.436450418485919</v>
+        <v>69.472451754499261</v>
       </c>
       <c r="AC14">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="AD14">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="AE14">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="AF14">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="AG14">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="AH14">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="AI14">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="AJ14">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="AK14">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="AL14">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="AM14">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -1862,121 +1898,121 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="C15">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="D15">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="E15">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="F15">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="G15">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="H15">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="I15">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="J15">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="K15">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="L15">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="M15">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="N15">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="O15">
-        <v>84.325856713545804</v>
+        <v>84.34343207904368</v>
       </c>
       <c r="P15">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="Q15">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="R15">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="S15">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="T15">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="U15">
-        <v>122.03588132594606</v>
+        <v>122.04013445586443</v>
       </c>
       <c r="V15">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="W15">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="X15">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="Y15">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="Z15">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="AA15">
-        <v>84.325856713545804</v>
+        <v>84.34343207904368</v>
       </c>
       <c r="AB15">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="AC15">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="AD15">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="AE15">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="AF15">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="AG15">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="AH15">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="AI15">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="AJ15">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="AK15">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="AL15">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AM15">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="AN15">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -1987,121 +2023,121 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="C16">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="D16">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="E16">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="F16">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="G16">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="H16">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="I16">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="J16">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="K16">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="L16">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="M16">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="N16">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="O16">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="P16">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="Q16">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="R16">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="S16">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="T16">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="U16">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="V16">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="W16">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="X16">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="Y16">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="Z16">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="AA16">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="AB16">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="AC16">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="AD16">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="AE16">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="AF16">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="AG16">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="AH16">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="AI16">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AJ16">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AK16">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="AL16">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="AM16">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="AN16">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -2112,121 +2148,121 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="C17">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="D17">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="E17">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="F17">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="G17">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="H17">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="I17">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="J17">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="K17">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="L17">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="M17">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="N17">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="O17">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="P17">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="Q17">
-        <v>127.46350254243782</v>
+        <v>127.46690614990757</v>
       </c>
       <c r="R17">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="S17">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="T17">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="U17">
-        <v>151.68937031930525</v>
+        <v>151.69036524823971</v>
       </c>
       <c r="V17">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="W17">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="X17">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="Y17">
-        <v>127.46350254243782</v>
+        <v>127.46690614990757</v>
       </c>
       <c r="Z17">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="AA17">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="AB17">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="AC17">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="AD17">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="AE17">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="AF17">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="AG17">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="AH17">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="AI17">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="AJ17">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="AK17">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="AL17">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="AM17">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="AN17">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -2237,121 +2273,121 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="C18">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="D18">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="E18">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="F18">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="G18">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="H18">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="I18">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="J18">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="K18">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="L18">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="M18">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="N18">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="O18">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="P18">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="Q18">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="R18">
-        <v>148.43953019595324</v>
+        <v>148.44074495913367</v>
       </c>
       <c r="S18">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="T18">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="U18">
-        <v>163.56734324825214</v>
+        <v>163.56773930253911</v>
       </c>
       <c r="V18">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="W18">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="X18">
-        <v>148.43953019595324</v>
+        <v>148.44074495913367</v>
       </c>
       <c r="Y18">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="Z18">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="AA18">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="AB18">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="AC18">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="AD18">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="AE18">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="AF18">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="AG18">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="AH18">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="AI18">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="AJ18">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="AK18">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="AL18">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="AM18">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="AN18">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -2362,121 +2398,121 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="C19">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="D19">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="E19">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="F19">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="G19">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="H19">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="I19">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="J19">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="K19">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="L19">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="M19">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="N19">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="O19">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="P19">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="Q19">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="R19">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="S19">
-        <v>165.3284374142718</v>
+        <v>165.3287690363494</v>
       </c>
       <c r="T19">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="U19">
-        <v>172.53436838688276</v>
+        <v>172.53449371455062</v>
       </c>
       <c r="V19">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="W19">
-        <v>165.3284374142718</v>
+        <v>165.3287690363494</v>
       </c>
       <c r="X19">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="Y19">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="Z19">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="AA19">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="AB19">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="AC19">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="AD19">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="AE19">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="AF19">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="AG19">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="AH19">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="AI19">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="AJ19">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="AK19">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="AL19">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="AM19">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="AN19">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -2487,121 +2523,121 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="C20">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="D20">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="E20">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="F20">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="G20">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="H20">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="I20">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="J20">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="K20">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="L20">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="M20">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="N20">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="O20">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="P20">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="Q20">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="R20">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="S20">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="T20">
-        <v>176.23461784545472</v>
+        <v>176.23467048798076</v>
       </c>
       <c r="U20">
-        <v>178.109154035177</v>
+        <v>178.10917786218113</v>
       </c>
       <c r="V20">
-        <v>176.23461784545472</v>
+        <v>176.23467048798076</v>
       </c>
       <c r="W20">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="X20">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="Y20">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="Z20">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="AA20">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="AB20">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="AC20">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="AD20">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="AE20">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="AF20">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="AG20">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="AH20">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="AI20">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="AJ20">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="AK20">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="AL20">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="AM20">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AN20">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -2612,121 +2648,121 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>189.83765133475529</v>
+        <v>192.17646028735032</v>
       </c>
       <c r="C21">
-        <v>44.733500410617097</v>
+        <v>46.263369775453015</v>
       </c>
       <c r="D21">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="E21">
-        <v>209.44311899411059</v>
+        <v>210.07774583883364</v>
       </c>
       <c r="F21">
-        <v>149.04096450928506</v>
+        <v>149.44422464864789</v>
       </c>
       <c r="G21">
-        <v>107.72383921960682</v>
+        <v>107.97820705551861</v>
       </c>
       <c r="H21">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="I21">
-        <v>68.517845486467948</v>
+        <v>68.617254347385682</v>
       </c>
       <c r="J21">
-        <v>64.888066631920466</v>
+        <v>64.949658070804546</v>
       </c>
       <c r="K21">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="L21">
-        <v>78.003841509698589</v>
+        <v>78.026765858913876</v>
       </c>
       <c r="M21">
-        <v>90.984597922826737</v>
+        <v>90.998189521943914</v>
       </c>
       <c r="N21">
-        <v>106.11466350459321</v>
+        <v>106.12245660075074</v>
       </c>
       <c r="O21">
-        <v>122.03588132594606</v>
+        <v>122.04013445586443</v>
       </c>
       <c r="P21">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="Q21">
-        <v>151.68937031930525</v>
+        <v>151.69036524823971</v>
       </c>
       <c r="R21">
-        <v>163.56734324825214</v>
+        <v>163.56773930253911</v>
       </c>
       <c r="S21">
-        <v>172.53436838688276</v>
+        <v>172.53449371455062</v>
       </c>
       <c r="T21">
-        <v>178.109154035177</v>
+        <v>178.10917786218113</v>
       </c>
       <c r="U21">
         <v>180</v>
       </c>
       <c r="V21">
-        <v>178.109154035177</v>
+        <v>178.10917786218113</v>
       </c>
       <c r="W21">
-        <v>172.53436838688276</v>
+        <v>172.53449371455062</v>
       </c>
       <c r="X21">
-        <v>163.56734324825214</v>
+        <v>163.56773930253911</v>
       </c>
       <c r="Y21">
-        <v>151.68937031930525</v>
+        <v>151.69036524823971</v>
       </c>
       <c r="Z21">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="AA21">
-        <v>122.03588132594606</v>
+        <v>122.04013445586443</v>
       </c>
       <c r="AB21">
-        <v>106.11466350459321</v>
+        <v>106.12245660075074</v>
       </c>
       <c r="AC21">
-        <v>90.984597922826737</v>
+        <v>90.998189521943914</v>
       </c>
       <c r="AD21">
-        <v>78.003841509698589</v>
+        <v>78.026765858913876</v>
       </c>
       <c r="AE21">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="AF21">
-        <v>64.888066631920466</v>
+        <v>64.949658070804546</v>
       </c>
       <c r="AG21">
-        <v>68.517845486467948</v>
+        <v>68.617254347385682</v>
       </c>
       <c r="AH21">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="AI21">
-        <v>107.72383921960682</v>
+        <v>107.97820705551861</v>
       </c>
       <c r="AJ21">
-        <v>149.04096450928506</v>
+        <v>149.44422464864789</v>
       </c>
       <c r="AK21">
-        <v>209.44311899411059</v>
+        <v>210.07774583883364</v>
       </c>
       <c r="AL21">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="AM21">
-        <v>44.733500410617097</v>
+        <v>46.263369775453015</v>
       </c>
       <c r="AN21">
-        <v>189.83765133475529</v>
+        <v>192.17646028735032</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -2737,121 +2773,121 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="C22">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="D22">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="E22">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="F22">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="G22">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="H22">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="I22">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="J22">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="K22">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="L22">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="M22">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="N22">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="O22">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="P22">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="Q22">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="R22">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="S22">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="T22">
-        <v>176.23461784545472</v>
+        <v>176.23467048798076</v>
       </c>
       <c r="U22">
-        <v>178.109154035177</v>
+        <v>178.10917786218113</v>
       </c>
       <c r="V22">
-        <v>176.23461784545472</v>
+        <v>176.23467048798076</v>
       </c>
       <c r="W22">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="X22">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="Y22">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="Z22">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="AA22">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="AB22">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="AC22">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="AD22">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="AE22">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="AF22">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="AG22">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="AH22">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="AI22">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="AJ22">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="AK22">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="AL22">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="AM22">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AN22">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -2862,121 +2898,121 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="C23">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="D23">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="E23">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="F23">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="G23">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="H23">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="I23">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="J23">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="K23">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="L23">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="M23">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="N23">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="O23">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="P23">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="Q23">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="R23">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="S23">
-        <v>165.3284374142718</v>
+        <v>165.3287690363494</v>
       </c>
       <c r="T23">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="U23">
-        <v>172.53436838688276</v>
+        <v>172.53449371455062</v>
       </c>
       <c r="V23">
-        <v>170.70860285932329</v>
+        <v>170.70877210478565</v>
       </c>
       <c r="W23">
-        <v>165.3284374142718</v>
+        <v>165.3287690363494</v>
       </c>
       <c r="X23">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="Y23">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="Z23">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="AA23">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="AB23">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="AC23">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="AD23">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="AE23">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="AF23">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="AG23">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="AH23">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="AI23">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="AJ23">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="AK23">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="AL23">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="AM23">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="AN23">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -2987,121 +3023,121 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="C24">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="D24">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="E24">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="F24">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="G24">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="H24">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="I24">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="J24">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="K24">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="L24">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="M24">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="N24">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="O24">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="P24">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="Q24">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="R24">
-        <v>148.43953019595324</v>
+        <v>148.44074495913367</v>
       </c>
       <c r="S24">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="T24">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="U24">
-        <v>163.56734324825214</v>
+        <v>163.56773930253911</v>
       </c>
       <c r="V24">
-        <v>161.82235580329882</v>
+        <v>161.82282149667873</v>
       </c>
       <c r="W24">
-        <v>156.68379855546738</v>
+        <v>156.68450476193988</v>
       </c>
       <c r="X24">
-        <v>148.43953019595324</v>
+        <v>148.44074495913367</v>
       </c>
       <c r="Y24">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="Z24">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="AA24">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="AB24">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="AC24">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="AD24">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="AE24">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="AF24">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="AG24">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="AH24">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="AI24">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="AJ24">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="AK24">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="AL24">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="AM24">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="AN24">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -3112,121 +3148,121 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="C25">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="D25">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="E25">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="F25">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="G25">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="H25">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="I25">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="J25">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="K25">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="L25">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="M25">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="N25">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="O25">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="P25">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="Q25">
-        <v>127.46350254243782</v>
+        <v>127.46690614990757</v>
       </c>
       <c r="R25">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="S25">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="T25">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="U25">
-        <v>151.68937031930525</v>
+        <v>151.69036524823971</v>
       </c>
       <c r="V25">
-        <v>150.05648661415321</v>
+        <v>150.05758869442826</v>
       </c>
       <c r="W25">
-        <v>145.25331637524027</v>
+        <v>145.25477329451496</v>
       </c>
       <c r="X25">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="Y25">
-        <v>127.46350254243782</v>
+        <v>127.46690614990757</v>
       </c>
       <c r="Z25">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="AA25">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="AB25">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="AC25">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="AD25">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="AE25">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="AF25">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="AG25">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="AH25">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="AI25">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="AJ25">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="AK25">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="AL25">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="AM25">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="AN25">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -3237,121 +3273,121 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="C26">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="D26">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="E26">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="F26">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="G26">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="H26">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="I26">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="J26">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="K26">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="L26">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="M26">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="N26">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="O26">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="P26">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="Q26">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="R26">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="S26">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="T26">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="U26">
-        <v>137.5650969526165</v>
+        <v>137.56725967801475</v>
       </c>
       <c r="V26">
-        <v>136.0748398908429</v>
+        <v>136.07716144872396</v>
       </c>
       <c r="W26">
-        <v>131.69851565047551</v>
+        <v>131.70135017001661</v>
       </c>
       <c r="X26">
-        <v>124.71844884352323</v>
+        <v>124.72226399115263</v>
       </c>
       <c r="Y26">
-        <v>115.60207973790881</v>
+        <v>115.60754790031844</v>
       </c>
       <c r="Z26">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="AA26">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="AB26">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="AC26">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="AD26">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="AE26">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="AF26">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="AG26">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="AH26">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="AI26">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AJ26">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AK26">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="AL26">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="AM26">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="AN26">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -3362,121 +3398,121 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="C27">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="D27">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="E27">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="F27">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="G27">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="H27">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="I27">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="J27">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="K27">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="L27">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="M27">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="N27">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="O27">
-        <v>84.325856713545804</v>
+        <v>84.34343207904368</v>
       </c>
       <c r="P27">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="Q27">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="R27">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="S27">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="T27">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="U27">
-        <v>122.03588132594606</v>
+        <v>122.04013445586443</v>
       </c>
       <c r="V27">
-        <v>120.7179928650733</v>
+        <v>120.72247510592072</v>
       </c>
       <c r="W27">
-        <v>116.85773902233481</v>
+        <v>116.86295010388017</v>
       </c>
       <c r="X27">
-        <v>110.73456092312507</v>
+        <v>110.74113059051869</v>
       </c>
       <c r="Y27">
-        <v>102.81182377601161</v>
+        <v>102.8206185886946</v>
       </c>
       <c r="Z27">
-        <v>93.734205195631006</v>
+        <v>93.746472096634648</v>
       </c>
       <c r="AA27">
-        <v>84.325856713545804</v>
+        <v>84.34343207904368</v>
       </c>
       <c r="AB27">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="AC27">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="AD27">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="AE27">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="AF27">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="AG27">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="AH27">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="AI27">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="AJ27">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="AK27">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="AL27">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AM27">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="AN27">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -3490,115 +3526,115 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="D28">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="E28">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="F28">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="G28">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="H28">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="I28">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="J28">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="K28">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="L28">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="M28">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="N28">
-        <v>69.436450418485919</v>
+        <v>69.472451754499261</v>
       </c>
       <c r="O28">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="P28">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="Q28">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="R28">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="S28">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="T28">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="U28">
-        <v>106.11466350459321</v>
+        <v>106.12245660075074</v>
       </c>
       <c r="V28">
-        <v>104.9982973224284</v>
+        <v>105.00641612297757</v>
       </c>
       <c r="W28">
-        <v>101.74169739917578</v>
+        <v>101.7508427534991</v>
       </c>
       <c r="X28">
-        <v>96.621817506363712</v>
+        <v>96.632845811428567</v>
       </c>
       <c r="Y28">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="Z28">
-        <v>82.814059370619887</v>
+        <v>82.832740062559779</v>
       </c>
       <c r="AA28">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="AB28">
-        <v>69.436450418485919</v>
+        <v>69.472451754499261</v>
       </c>
       <c r="AC28">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="AD28">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="AE28">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="AF28">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="AG28">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="AH28">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="AI28">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="AJ28">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="AK28">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="AL28">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="AM28">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -3615,115 +3651,115 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="D29">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="E29">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="F29">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="G29">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="H29">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="I29">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="J29">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="K29">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="L29">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="M29">
-        <v>65.121508830376499</v>
+        <v>65.19313553209544</v>
       </c>
       <c r="N29">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="O29">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="P29">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="Q29">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="R29">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="S29">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="T29">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="U29">
-        <v>90.984597922826737</v>
+        <v>90.998189521943914</v>
       </c>
       <c r="V29">
-        <v>90.098701449495906</v>
+        <v>90.112754416580415</v>
       </c>
       <c r="W29">
-        <v>87.532854896324395</v>
+        <v>87.548353464396996</v>
       </c>
       <c r="X29">
-        <v>83.562318914733211</v>
+        <v>83.580441226197863</v>
       </c>
       <c r="Y29">
-        <v>78.645213350689787</v>
+        <v>78.667494297794178</v>
       </c>
       <c r="Z29">
-        <v>73.422384677013227</v>
+        <v>73.450936931568009</v>
       </c>
       <c r="AA29">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="AB29">
-        <v>65.548128289072238</v>
+        <v>65.599623458023686</v>
       </c>
       <c r="AC29">
-        <v>65.121508830376499</v>
+        <v>65.19313553209544</v>
       </c>
       <c r="AD29">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="AE29">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="AF29">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="AG29">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="AH29">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="AI29">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="AJ29">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="AK29">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="AL29">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="AM29">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -3743,109 +3779,109 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="E30">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="F30">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="G30">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="H30">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="I30">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="J30">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="K30">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="L30">
-        <v>77.155332850924907</v>
+        <v>77.295632099792414</v>
       </c>
       <c r="M30">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="N30">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="O30">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="P30">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="Q30">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="R30">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="S30">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="T30">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="U30">
-        <v>78.003841509698589</v>
+        <v>78.026765858913876</v>
       </c>
       <c r="V30">
-        <v>77.377734155275022</v>
+        <v>77.4013147963188</v>
       </c>
       <c r="W30">
-        <v>75.590995829930847</v>
+        <v>75.616624640020603</v>
       </c>
       <c r="X30">
-        <v>72.918399876434606</v>
+        <v>72.947718764164691</v>
       </c>
       <c r="Y30">
-        <v>69.818202840132244</v>
+        <v>69.853313326096597</v>
       </c>
       <c r="Z30">
-        <v>66.933372059893358</v>
+        <v>66.977117794074303</v>
       </c>
       <c r="AA30">
-        <v>65.094787766874376</v>
+        <v>65.151157178811175</v>
       </c>
       <c r="AB30">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="AC30">
-        <v>68.863210595827198</v>
+        <v>68.964604251981086</v>
       </c>
       <c r="AD30">
-        <v>77.155332850924907</v>
+        <v>77.295632099792414</v>
       </c>
       <c r="AE30">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="AF30">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="AG30">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="AH30">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AI30">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="AJ30">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="AK30">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="AL30">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -3868,109 +3904,109 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="E31">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="F31">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="G31">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="H31">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="I31">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="J31">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="K31">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="L31">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="M31">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="N31">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="O31">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="P31">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="Q31">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="R31">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="S31">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="T31">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="U31">
-        <v>68.718830194154506</v>
+        <v>68.756663205005978</v>
       </c>
       <c r="V31">
-        <v>68.382970801666929</v>
+        <v>68.421745126930503</v>
       </c>
       <c r="W31">
-        <v>67.467251299368215</v>
+        <v>67.508954477492551</v>
       </c>
       <c r="X31">
-        <v>66.247568114515332</v>
+        <v>66.294517929292084</v>
       </c>
       <c r="Y31">
-        <v>65.185023673125571</v>
+        <v>65.2401426719874</v>
       </c>
       <c r="Z31">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="AA31">
-        <v>66.319888894476762</v>
+        <v>66.404507526862403</v>
       </c>
       <c r="AB31">
-        <v>70.402225797382926</v>
+        <v>70.511877995074158</v>
       </c>
       <c r="AC31">
-        <v>78.433575259838122</v>
+        <v>78.579147838881084</v>
       </c>
       <c r="AD31">
-        <v>91.906336763538064</v>
+        <v>92.103561190054307</v>
       </c>
       <c r="AE31">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="AF31">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AG31">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="AH31">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="AI31">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="AJ31">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AK31">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="AL31">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -3996,103 +4032,103 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="F32">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="G32">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="H32">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="I32">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="J32">
-        <v>180.03851004812563</v>
+        <v>180.55800193237209</v>
       </c>
       <c r="K32">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="L32">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="M32">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="N32">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="O32">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="P32">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="Q32">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="R32">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="S32">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="T32">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="U32">
-        <v>64.888066631920466</v>
+        <v>64.949658070804546</v>
       </c>
       <c r="V32">
-        <v>64.874987262319664</v>
+        <v>64.93794084372017</v>
       </c>
       <c r="W32">
-        <v>64.928544507822068</v>
+        <v>64.995725498035526</v>
       </c>
       <c r="X32">
-        <v>65.327742656601274</v>
+        <v>65.402458885070004</v>
       </c>
       <c r="Y32">
-        <v>66.539834355362004</v>
+        <v>66.626199555763478</v>
       </c>
       <c r="Z32">
-        <v>69.224316372203617</v>
+        <v>69.327726355726995</v>
       </c>
       <c r="AA32">
-        <v>74.239709902855608</v>
+        <v>74.3674982908272</v>
       </c>
       <c r="AB32">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="AC32">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="AD32">
-        <v>115.0996199361343</v>
+        <v>115.380332679486</v>
       </c>
       <c r="AE32">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AF32">
-        <v>180.03851004812563</v>
+        <v>180.55800193237209</v>
       </c>
       <c r="AG32">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="AH32">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="AI32">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="AJ32">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="AK32">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -4124,97 +4160,97 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="G33">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="H33">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="I33">
-        <v>290.24386713595612</v>
+        <v>291.22127656146813</v>
       </c>
       <c r="J33">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="K33">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="L33">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="M33">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="N33">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="O33">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="P33">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="Q33">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="R33">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="S33">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="T33">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="U33">
-        <v>68.517845486467948</v>
+        <v>68.617254347385682</v>
       </c>
       <c r="V33">
-        <v>68.863210595827169</v>
+        <v>68.964604251981058</v>
       </c>
       <c r="W33">
-        <v>69.993808968164316</v>
+        <v>70.101347814781917</v>
       </c>
       <c r="X33">
-        <v>72.194055781806171</v>
+        <v>72.312497202576239</v>
       </c>
       <c r="Y33">
-        <v>75.941156819089954</v>
+        <v>76.07633828709686</v>
       </c>
       <c r="Z33">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="AA33">
-        <v>90.983714875955414</v>
+        <v>91.177538441457827</v>
       </c>
       <c r="AB33">
-        <v>104.26190859929503</v>
+        <v>104.50388353299597</v>
       </c>
       <c r="AC33">
-        <v>123.08219197873586</v>
+        <v>123.39144130580837</v>
       </c>
       <c r="AD33">
-        <v>149.04096450928486</v>
+        <v>149.44422464864775</v>
       </c>
       <c r="AE33">
-        <v>184.02265020282738</v>
+        <v>184.55745307682901</v>
       </c>
       <c r="AF33">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="AG33">
-        <v>290.24386713595612</v>
+        <v>291.22127656146813</v>
       </c>
       <c r="AH33">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="AI33">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="AJ33">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -4249,97 +4285,97 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="G34">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="H34">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="I34">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="J34">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="K34">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="L34">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="M34">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="N34">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="O34">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="P34">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="Q34">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="R34">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="S34">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="T34">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="U34">
-        <v>81.91042125274511</v>
+        <v>82.06988250527229</v>
       </c>
       <c r="V34">
-        <v>82.65415115257376</v>
+        <v>82.816514919289517</v>
       </c>
       <c r="W34">
-        <v>84.982403905213332</v>
+        <v>85.153733666007042</v>
       </c>
       <c r="X34">
-        <v>89.187542068933439</v>
+        <v>89.374707165009568</v>
       </c>
       <c r="Y34">
-        <v>95.760881698164695</v>
+        <v>95.97219977583633</v>
       </c>
       <c r="Z34">
-        <v>105.39920920278459</v>
+        <v>105.64525898912777</v>
       </c>
       <c r="AA34">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="AB34">
-        <v>137.74914957767359</v>
+        <v>138.11121506859689</v>
       </c>
       <c r="AC34">
-        <v>162.99242318593662</v>
+        <v>163.44738547381166</v>
       </c>
       <c r="AD34">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AE34">
-        <v>239.95567402547468</v>
+        <v>240.715140356777</v>
       </c>
       <c r="AF34">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="AG34">
-        <v>7.02258369036781</v>
+        <v>8.3619455945407992</v>
       </c>
       <c r="AH34">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="AI34">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="AJ34">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -4377,91 +4413,91 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>333.87421529168535</v>
+        <v>337.13109994355011</v>
       </c>
       <c r="H35">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="I35">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="J35">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="K35">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="L35">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="M35">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="N35">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="O35">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="P35">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="Q35">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="R35">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="S35">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="T35">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="U35">
-        <v>107.72383921960682</v>
+        <v>107.97820705551861</v>
       </c>
       <c r="V35">
-        <v>108.91121441866592</v>
+        <v>109.16982666258028</v>
       </c>
       <c r="W35">
-        <v>112.57385828034788</v>
+        <v>112.84555264213968</v>
       </c>
       <c r="X35">
-        <v>119.01473450948755</v>
+        <v>119.30943293446364</v>
       </c>
       <c r="Y35">
-        <v>128.74358411805792</v>
+        <v>129.0731446481779</v>
       </c>
       <c r="Z35">
-        <v>142.48447653814713</v>
+        <v>142.8637524630112</v>
       </c>
       <c r="AA35">
-        <v>161.1870101060772</v>
+        <v>161.63522761320962</v>
       </c>
       <c r="AB35">
-        <v>186.04163033768108</v>
+        <v>186.58422609467232</v>
       </c>
       <c r="AC35">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="AD35">
-        <v>260.29659919291885</v>
+        <v>261.14238727698535</v>
       </c>
       <c r="AE35">
-        <v>313.48296530156688</v>
+        <v>314.56622480324899</v>
       </c>
       <c r="AF35">
-        <v>20.453838132971271</v>
+        <v>21.86010016448347</v>
       </c>
       <c r="AG35">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="AH35">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="AI35">
-        <v>333.87421529168535</v>
+        <v>337.13109994355011</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -4505,85 +4541,85 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="I36">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="J36">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="K36">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="L36">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="M36">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="N36">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="O36">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="P36">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="Q36">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="R36">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="S36">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="T36">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="U36">
-        <v>149.04096450928506</v>
+        <v>149.44422464864789</v>
       </c>
       <c r="V36">
-        <v>150.72360311970712</v>
+        <v>151.13304938363791</v>
       </c>
       <c r="W36">
-        <v>155.87638071447586</v>
+        <v>156.30485349391475</v>
       </c>
       <c r="X36">
-        <v>164.81548288356581</v>
+        <v>165.2772728578519</v>
       </c>
       <c r="Y36">
-        <v>178.07329428980319</v>
+        <v>178.58526639047957</v>
       </c>
       <c r="Z36">
-        <v>196.40675279823387</v>
+        <v>196.98972085873265</v>
       </c>
       <c r="AA36">
-        <v>220.80945868910987</v>
+        <v>221.48994193870269</v>
       </c>
       <c r="AB36">
-        <v>252.52779188043004</v>
+        <v>253.34031725427116</v>
       </c>
       <c r="AC36">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="AD36">
-        <v>344.2859555973734</v>
+        <v>345.51448485713104</v>
       </c>
       <c r="AE36">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AF36">
-        <v>127.5660830600505</v>
+        <v>129.5431786584378</v>
       </c>
       <c r="AG36">
-        <v>225.00957127251851</v>
+        <v>227.56216828543413</v>
       </c>
       <c r="AH36">
-        <v>343.89104609198768</v>
+        <v>347.21592410577284</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -4636,73 +4672,73 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="K37">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="L37">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="M37">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="N37">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="O37">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="P37">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="Q37">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="R37">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="S37">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="T37">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="U37">
-        <v>209.44311899411059</v>
+        <v>210.07774583883364</v>
       </c>
       <c r="V37">
-        <v>211.67969284594773</v>
+        <v>212.32328256072958</v>
       </c>
       <c r="W37">
-        <v>218.49943895484975</v>
+        <v>219.1705406704003</v>
       </c>
       <c r="X37">
-        <v>230.23416535072548</v>
+        <v>230.95325396239798</v>
       </c>
       <c r="Y37">
-        <v>247.44270808921357</v>
+        <v>248.23365803348997</v>
       </c>
       <c r="Z37">
-        <v>270.91979119256678</v>
+        <v>271.81165153672674</v>
       </c>
       <c r="AA37">
-        <v>301.7086136430184</v>
+        <v>302.73783866636018</v>
       </c>
       <c r="AB37">
-        <v>341.11718599883409</v>
+        <v>342.33051102631214</v>
       </c>
       <c r="AC37">
-        <v>30.738216357668733</v>
+        <v>32.196417112044941</v>
       </c>
       <c r="AD37">
-        <v>92.471950575665247</v>
+        <v>94.254787809446839</v>
       </c>
       <c r="AE37">
-        <v>168.55076664815397</v>
+        <v>170.76349882832838</v>
       </c>
       <c r="AF37">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4764,67 +4800,67 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="L38">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="M38">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="N38">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="O38">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="P38">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="Q38">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="R38">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="S38">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="T38">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="U38">
-        <v>293.08113305633697</v>
+        <v>294.07129223843515</v>
       </c>
       <c r="V38">
-        <v>295.93765950288434</v>
+        <v>296.94070380425137</v>
       </c>
       <c r="W38">
-        <v>304.62310120448279</v>
+        <v>305.66562404306421</v>
       </c>
       <c r="X38">
-        <v>319.48684226570913</v>
+        <v>320.59797351067209</v>
       </c>
       <c r="Y38">
-        <v>341.11718599883352</v>
+        <v>342.33051102631168</v>
       </c>
       <c r="Z38">
-        <v>10.350352954279714</v>
+        <v>11.706191722470692</v>
       </c>
       <c r="AA38">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="AB38">
-        <v>96.288149956545197</v>
+        <v>98.091772690595704</v>
       </c>
       <c r="AC38">
-        <v>156.03367977100689</v>
+        <v>158.17345090973001</v>
       </c>
       <c r="AD38">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="AE38">
-        <v>319.01534229951699</v>
+        <v>322.1723491835653</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4895,55 +4931,55 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="N39">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="O39">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="P39">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="Q39">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="R39">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="S39">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="T39">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="U39">
-        <v>44.733500410617097</v>
+        <v>46.263369775453015</v>
       </c>
       <c r="V39">
-        <v>48.283016021996389</v>
+        <v>49.831242774150439</v>
       </c>
       <c r="W39">
-        <v>59.053704394244491</v>
+        <v>60.658080869208248</v>
       </c>
       <c r="X39">
-        <v>77.413763374765097</v>
+        <v>79.115394594450862</v>
       </c>
       <c r="Y39">
-        <v>103.98273607428565</v>
+        <v>105.82852037571085</v>
       </c>
       <c r="Z39">
-        <v>139.64020419840341</v>
+        <v>141.68574156911524</v>
       </c>
       <c r="AA39">
-        <v>185.53763649141459</v>
+        <v>187.85077542150714</v>
       </c>
       <c r="AB39">
-        <v>243.11290956617273</v>
+        <v>245.77818488331474</v>
       </c>
       <c r="AC39">
-        <v>314.10665117771623</v>
+        <v>317.23092164634977</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -5026,43 +5062,43 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="P40">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="Q40">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="R40">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="S40">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="T40">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="U40">
-        <v>189.83765133475529</v>
+        <v>192.17646028735032</v>
       </c>
       <c r="V40">
-        <v>194.15904076927194</v>
+        <v>196.52375018017588</v>
       </c>
       <c r="W40">
-        <v>207.25173311140122</v>
+        <v>209.69554217867602</v>
       </c>
       <c r="X40">
-        <v>229.50294756651274</v>
+        <v>232.08334538939584</v>
       </c>
       <c r="Y40">
-        <v>261.56346975322128</v>
+        <v>264.34541808608384</v>
       </c>
       <c r="Z40">
-        <v>304.3555179314875</v>
+        <v>307.41513927019076</v>
       </c>
       <c r="AA40">
-        <v>359.0831585609111</v>
+        <v>2.5121747266806835</v>
       </c>
       <c r="AB40">
         <v>0</v>
